--- a/ondebmh/onde_18102022.xlsx
+++ b/ondebmh/onde_18102022.xlsx
@@ -403,13 +403,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.55"/>
   </cols>
@@ -421,6 +421,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="str">
+        <f aca="false">"('"&amp;A1&amp;"','"&amp;B1&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758556','2022-10-18'),</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -429,6 +433,10 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="0" t="str">
+        <f aca="false">"('"&amp;A2&amp;"','"&amp;B2&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758550','2022-10-18'),</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -437,6 +445,10 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="0" t="str">
+        <f aca="false">"('"&amp;A3&amp;"','"&amp;B3&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758565','2022-10-18'),</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -445,6 +457,10 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="0" t="str">
+        <f aca="false">"('"&amp;A4&amp;"','"&amp;B4&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758567','2022-10-18'),</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -453,6 +469,10 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="0" t="str">
+        <f aca="false">"('"&amp;A5&amp;"','"&amp;B5&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758560','2022-10-18'),</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -461,6 +481,10 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0" t="str">
+        <f aca="false">"('"&amp;A6&amp;"','"&amp;B6&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758573','2022-10-18'),</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -469,6 +493,10 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="0" t="str">
+        <f aca="false">"('"&amp;A7&amp;"','"&amp;B7&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758575','2022-10-18'),</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -477,6 +505,10 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="0" t="str">
+        <f aca="false">"('"&amp;A8&amp;"','"&amp;B8&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758581','2022-10-18'),</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -485,6 +517,10 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="0" t="str">
+        <f aca="false">"('"&amp;A9&amp;"','"&amp;B9&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758582','2022-10-18'),</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -493,6 +529,10 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="0" t="str">
+        <f aca="false">"('"&amp;A10&amp;"','"&amp;B10&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758585','2022-10-18'),</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -501,6 +541,10 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="0" t="str">
+        <f aca="false">"('"&amp;A11&amp;"','"&amp;B11&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758589','2022-10-18'),</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -509,6 +553,10 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="0" t="str">
+        <f aca="false">"('"&amp;A12&amp;"','"&amp;B12&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758580','2022-10-18'),</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -517,6 +565,10 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C13" s="0" t="str">
+        <f aca="false">"('"&amp;A13&amp;"','"&amp;B13&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758599','2022-10-18'),</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -525,6 +577,10 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C14" s="0" t="str">
+        <f aca="false">"('"&amp;A14&amp;"','"&amp;B14&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758507','2022-10-18'),</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -533,6 +589,10 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C15" s="0" t="str">
+        <f aca="false">"('"&amp;A15&amp;"','"&amp;B15&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758511','2022-10-18'),</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -541,6 +601,10 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C16" s="0" t="str">
+        <f aca="false">"('"&amp;A16&amp;"','"&amp;B16&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758514','2022-10-18'),</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -549,6 +613,10 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C17" s="0" t="str">
+        <f aca="false">"('"&amp;A17&amp;"','"&amp;B17&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758518','2022-10-18'),</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -557,6 +625,10 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C18" s="0" t="str">
+        <f aca="false">"('"&amp;A18&amp;"','"&amp;B18&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758525','2022-10-18'),</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -565,6 +637,10 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C19" s="0" t="str">
+        <f aca="false">"('"&amp;A19&amp;"','"&amp;B19&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758527','2022-10-18'),</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -573,6 +649,10 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C20" s="0" t="str">
+        <f aca="false">"('"&amp;A20&amp;"','"&amp;B20&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758529','2022-10-18'),</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -581,6 +661,10 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C21" s="0" t="str">
+        <f aca="false">"('"&amp;A21&amp;"','"&amp;B21&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758520','2022-10-18'),</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -589,6 +673,10 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C22" s="0" t="str">
+        <f aca="false">"('"&amp;A22&amp;"','"&amp;B22&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758658','2022-10-18'),</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -597,6 +685,10 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C23" s="0" t="str">
+        <f aca="false">"('"&amp;A23&amp;"','"&amp;B23&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758661','2022-10-18'),</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -605,6 +697,10 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C24" s="0" t="str">
+        <f aca="false">"('"&amp;A24&amp;"','"&amp;B24&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758665','2022-10-18'),</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -613,6 +709,10 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C25" s="0" t="str">
+        <f aca="false">"('"&amp;A25&amp;"','"&amp;B25&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758668','2022-10-18'),</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -621,6 +721,10 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C26" s="0" t="str">
+        <f aca="false">"('"&amp;A26&amp;"','"&amp;B26&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758676','2022-10-18'),</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -629,6 +733,10 @@
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C27" s="0" t="str">
+        <f aca="false">"('"&amp;A27&amp;"','"&amp;B27&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758686','2022-10-18'),</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -637,6 +745,10 @@
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C28" s="0" t="str">
+        <f aca="false">"('"&amp;A28&amp;"','"&amp;B28&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758691','2022-10-18'),</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -645,6 +757,10 @@
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C29" s="0" t="str">
+        <f aca="false">"('"&amp;A29&amp;"','"&amp;B29&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758694','2022-10-18'),</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -653,6 +769,10 @@
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C30" s="0" t="str">
+        <f aca="false">"('"&amp;A30&amp;"','"&amp;B30&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758697','2022-10-18'),</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -661,6 +781,10 @@
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C31" s="0" t="str">
+        <f aca="false">"('"&amp;A31&amp;"','"&amp;B31&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758698','2022-10-18'),</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -669,6 +793,10 @@
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C32" s="0" t="str">
+        <f aca="false">"('"&amp;A32&amp;"','"&amp;B32&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758699','2022-10-18'),</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -677,6 +805,10 @@
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C33" s="0" t="str">
+        <f aca="false">"('"&amp;A33&amp;"','"&amp;B33&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758607','2022-10-18'),</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -685,6 +817,10 @@
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C34" s="0" t="str">
+        <f aca="false">"('"&amp;A34&amp;"','"&amp;B34&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758616','2022-10-18'),</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -693,6 +829,10 @@
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C35" s="0" t="str">
+        <f aca="false">"('"&amp;A35&amp;"','"&amp;B35&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758624','2022-10-18'),</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -701,6 +841,10 @@
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C36" s="0" t="str">
+        <f aca="false">"('"&amp;A36&amp;"','"&amp;B36&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758620','2022-10-18'),</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -709,6 +853,10 @@
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C37" s="0" t="str">
+        <f aca="false">"('"&amp;A37&amp;"','"&amp;B37&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758631','2022-10-18'),</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -717,6 +865,10 @@
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C38" s="0" t="str">
+        <f aca="false">"('"&amp;A38&amp;"','"&amp;B38&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758638','2022-10-18'),</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -725,6 +877,10 @@
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C39" s="0" t="str">
+        <f aca="false">"('"&amp;A39&amp;"','"&amp;B39&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758630','2022-10-18'),</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -733,6 +889,10 @@
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C40" s="0" t="str">
+        <f aca="false">"('"&amp;A40&amp;"','"&amp;B40&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758644','2022-10-18'),</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -741,6 +901,10 @@
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C41" s="0" t="str">
+        <f aca="false">"('"&amp;A41&amp;"','"&amp;B41&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758646','2022-10-18'),</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -749,6 +913,10 @@
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C42" s="0" t="str">
+        <f aca="false">"('"&amp;A42&amp;"','"&amp;B42&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758647','2022-10-18'),</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -757,6 +925,10 @@
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C43" s="0" t="str">
+        <f aca="false">"('"&amp;A43&amp;"','"&amp;B43&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758648','2022-10-18'),</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -765,6 +937,10 @@
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C44" s="0" t="str">
+        <f aca="false">"('"&amp;A44&amp;"','"&amp;B44&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758752','2022-10-18'),</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -773,6 +949,10 @@
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C45" s="0" t="str">
+        <f aca="false">"('"&amp;A45&amp;"','"&amp;B45&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758755','2022-10-18'),</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -781,6 +961,10 @@
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C46" s="0" t="str">
+        <f aca="false">"('"&amp;A46&amp;"','"&amp;B46&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758756','2022-10-18'),</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -789,6 +973,10 @@
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C47" s="0" t="str">
+        <f aca="false">"('"&amp;A47&amp;"','"&amp;B47&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758757','2022-10-18'),</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -797,6 +985,10 @@
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C48" s="0" t="str">
+        <f aca="false">"('"&amp;A48&amp;"','"&amp;B48&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758761','2022-10-18'),</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -805,6 +997,10 @@
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C49" s="0" t="str">
+        <f aca="false">"('"&amp;A49&amp;"','"&amp;B49&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758765','2022-10-18'),</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -813,6 +1009,10 @@
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C50" s="0" t="str">
+        <f aca="false">"('"&amp;A50&amp;"','"&amp;B50&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758766','2022-10-18'),</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -821,6 +1021,10 @@
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C51" s="0" t="str">
+        <f aca="false">"('"&amp;A51&amp;"','"&amp;B51&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758771','2022-10-18'),</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -829,6 +1033,10 @@
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C52" s="0" t="str">
+        <f aca="false">"('"&amp;A52&amp;"','"&amp;B52&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758778','2022-10-18'),</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -837,6 +1045,10 @@
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C53" s="0" t="str">
+        <f aca="false">"('"&amp;A53&amp;"','"&amp;B53&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758783','2022-10-18'),</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -845,6 +1057,10 @@
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C54" s="0" t="str">
+        <f aca="false">"('"&amp;A54&amp;"','"&amp;B54&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758784','2022-10-18'),</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -853,6 +1069,10 @@
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C55" s="0" t="str">
+        <f aca="false">"('"&amp;A55&amp;"','"&amp;B55&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758787','2022-10-18'),</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -861,6 +1081,10 @@
       <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C56" s="0" t="str">
+        <f aca="false">"('"&amp;A56&amp;"','"&amp;B56&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758793','2022-10-18'),</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -869,6 +1093,10 @@
       <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C57" s="0" t="str">
+        <f aca="false">"('"&amp;A57&amp;"','"&amp;B57&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758795','2022-10-18'),</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -877,6 +1105,10 @@
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C58" s="0" t="str">
+        <f aca="false">"('"&amp;A58&amp;"','"&amp;B58&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758796','2022-10-18'),</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -885,6 +1117,10 @@
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C59" s="0" t="str">
+        <f aca="false">"('"&amp;A59&amp;"','"&amp;B59&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758798','2022-10-18'),</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -893,6 +1129,10 @@
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C60" s="0" t="str">
+        <f aca="false">"('"&amp;A60&amp;"','"&amp;B60&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758799','2022-10-18'),</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -901,6 +1141,10 @@
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C61" s="0" t="str">
+        <f aca="false">"('"&amp;A61&amp;"','"&amp;B61&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758700','2022-10-18'),</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -909,6 +1153,10 @@
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C62" s="0" t="str">
+        <f aca="false">"('"&amp;A62&amp;"','"&amp;B62&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758713','2022-10-18'),</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -917,6 +1165,10 @@
       <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="C63" s="0" t="str">
+        <f aca="false">"('"&amp;A63&amp;"','"&amp;B63&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758722','2022-10-18'),</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -925,6 +1177,10 @@
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="C64" s="0" t="str">
+        <f aca="false">"('"&amp;A64&amp;"','"&amp;B64&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758724','2022-10-18'),</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -933,6 +1189,10 @@
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C65" s="0" t="str">
+        <f aca="false">"('"&amp;A65&amp;"','"&amp;B65&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758733','2022-10-18'),</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -941,6 +1201,10 @@
       <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C66" s="0" t="str">
+        <f aca="false">"('"&amp;A66&amp;"','"&amp;B66&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758737','2022-10-18'),</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
@@ -949,6 +1213,10 @@
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C67" s="0" t="str">
+        <f aca="false">"('"&amp;A67&amp;"','"&amp;B67&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758745','2022-10-18'),</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -957,6 +1225,10 @@
       <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="C68" s="0" t="str">
+        <f aca="false">"('"&amp;A68&amp;"','"&amp;B68&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758748','2022-10-18'),</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -965,6 +1237,10 @@
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="C69" s="0" t="str">
+        <f aca="false">"('"&amp;A69&amp;"','"&amp;B69&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758858','2022-10-18'),</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -973,6 +1249,10 @@
       <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="C70" s="0" t="str">
+        <f aca="false">"('"&amp;A70&amp;"','"&amp;B70&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758865','2022-10-18'),</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -981,6 +1261,10 @@
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C71" s="0" t="str">
+        <f aca="false">"('"&amp;A71&amp;"','"&amp;B71&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758867','2022-10-18'),</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -989,6 +1273,10 @@
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="C72" s="0" t="str">
+        <f aca="false">"('"&amp;A72&amp;"','"&amp;B72&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758869','2022-10-18'),</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -997,6 +1285,10 @@
       <c r="B73" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C73" s="0" t="str">
+        <f aca="false">"('"&amp;A73&amp;"','"&amp;B73&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758860','2022-10-18'),</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
@@ -1005,6 +1297,10 @@
       <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="C74" s="0" t="str">
+        <f aca="false">"('"&amp;A74&amp;"','"&amp;B74&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758875','2022-10-18'),</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -1013,6 +1309,10 @@
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C75" s="0" t="str">
+        <f aca="false">"('"&amp;A75&amp;"','"&amp;B75&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758878','2022-10-18'),</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -1021,6 +1321,10 @@
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="C76" s="0" t="str">
+        <f aca="false">"('"&amp;A76&amp;"','"&amp;B76&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758879','2022-10-18'),</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -1029,6 +1333,10 @@
       <c r="B77" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="C77" s="0" t="str">
+        <f aca="false">"('"&amp;A77&amp;"','"&amp;B77&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758885','2022-10-18'),</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -1037,6 +1345,10 @@
       <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="C78" s="0" t="str">
+        <f aca="false">"('"&amp;A78&amp;"','"&amp;B78&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758886','2022-10-18'),</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -1045,6 +1357,10 @@
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="C79" s="0" t="str">
+        <f aca="false">"('"&amp;A79&amp;"','"&amp;B79&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758887','2022-10-18'),</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -1053,6 +1369,10 @@
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="C80" s="0" t="str">
+        <f aca="false">"('"&amp;A80&amp;"','"&amp;B80&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758880','2022-10-18'),</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -1061,6 +1381,10 @@
       <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="C81" s="0" t="str">
+        <f aca="false">"('"&amp;A81&amp;"','"&amp;B81&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758895','2022-10-18'),</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
@@ -1069,6 +1393,10 @@
       <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="C82" s="0" t="str">
+        <f aca="false">"('"&amp;A82&amp;"','"&amp;B82&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758899','2022-10-18'),</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -1077,6 +1405,10 @@
       <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="C83" s="0" t="str">
+        <f aca="false">"('"&amp;A83&amp;"','"&amp;B83&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758804','2022-10-18'),</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
@@ -1085,6 +1417,10 @@
       <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="C84" s="0" t="str">
+        <f aca="false">"('"&amp;A84&amp;"','"&amp;B84&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758812','2022-10-18'),</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -1093,6 +1429,10 @@
       <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="C85" s="0" t="str">
+        <f aca="false">"('"&amp;A85&amp;"','"&amp;B85&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758817','2022-10-18'),</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -1101,6 +1441,10 @@
       <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C86" s="0" t="str">
+        <f aca="false">"('"&amp;A86&amp;"','"&amp;B86&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758822','2022-10-18'),</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
@@ -1109,6 +1453,10 @@
       <c r="B87" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C87" s="0" t="str">
+        <f aca="false">"('"&amp;A87&amp;"','"&amp;B87&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758825','2022-10-18'),</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
@@ -1117,6 +1465,10 @@
       <c r="B88" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="C88" s="0" t="str">
+        <f aca="false">"('"&amp;A88&amp;"','"&amp;B88&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758837','2022-10-18'),</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
@@ -1125,6 +1477,10 @@
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C89" s="0" t="str">
+        <f aca="false">"('"&amp;A89&amp;"','"&amp;B89&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758830','2022-10-18'),</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
@@ -1133,6 +1489,10 @@
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C90" s="0" t="str">
+        <f aca="false">"('"&amp;A90&amp;"','"&amp;B90&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758842','2022-10-18'),</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
@@ -1141,6 +1501,10 @@
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C91" s="0" t="str">
+        <f aca="false">"('"&amp;A91&amp;"','"&amp;B91&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758844','2022-10-18'),</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
@@ -1149,6 +1513,10 @@
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="C92" s="0" t="str">
+        <f aca="false">"('"&amp;A92&amp;"','"&amp;B92&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758845','2022-10-18'),</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
@@ -1156,6 +1524,10 @@
       </c>
       <c r="B93" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="C93" s="0" t="str">
+        <f aca="false">"('"&amp;A93&amp;"','"&amp;B93&amp;"','2022-10-18'),"</f>
+        <v>('bapak/ibu','6281230758848','2022-10-18'),</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ondebmh/onde_18102022.xlsx
+++ b/ondebmh/onde_18102022.xlsx
@@ -403,13 +403,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:C93"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.55"/>
   </cols>
@@ -421,10 +421,6 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">"('"&amp;A1&amp;"','"&amp;B1&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758556','2022-10-18'),</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -433,10 +429,6 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="str">
-        <f aca="false">"('"&amp;A2&amp;"','"&amp;B2&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758550','2022-10-18'),</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -445,10 +437,6 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="str">
-        <f aca="false">"('"&amp;A3&amp;"','"&amp;B3&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758565','2022-10-18'),</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -457,10 +445,6 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="str">
-        <f aca="false">"('"&amp;A4&amp;"','"&amp;B4&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758567','2022-10-18'),</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -469,10 +453,6 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="str">
-        <f aca="false">"('"&amp;A5&amp;"','"&amp;B5&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758560','2022-10-18'),</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -481,10 +461,6 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="str">
-        <f aca="false">"('"&amp;A6&amp;"','"&amp;B6&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758573','2022-10-18'),</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -493,10 +469,6 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="0" t="str">
-        <f aca="false">"('"&amp;A7&amp;"','"&amp;B7&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758575','2022-10-18'),</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -505,10 +477,6 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="0" t="str">
-        <f aca="false">"('"&amp;A8&amp;"','"&amp;B8&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758581','2022-10-18'),</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -517,10 +485,6 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="0" t="str">
-        <f aca="false">"('"&amp;A9&amp;"','"&amp;B9&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758582','2022-10-18'),</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -529,10 +493,6 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="0" t="str">
-        <f aca="false">"('"&amp;A10&amp;"','"&amp;B10&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758585','2022-10-18'),</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -541,10 +501,6 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="0" t="str">
-        <f aca="false">"('"&amp;A11&amp;"','"&amp;B11&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758589','2022-10-18'),</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -553,10 +509,6 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="0" t="str">
-        <f aca="false">"('"&amp;A12&amp;"','"&amp;B12&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758580','2022-10-18'),</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -565,10 +517,6 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="0" t="str">
-        <f aca="false">"('"&amp;A13&amp;"','"&amp;B13&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758599','2022-10-18'),</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -577,10 +525,6 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="0" t="str">
-        <f aca="false">"('"&amp;A14&amp;"','"&amp;B14&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758507','2022-10-18'),</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -589,10 +533,6 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="0" t="str">
-        <f aca="false">"('"&amp;A15&amp;"','"&amp;B15&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758511','2022-10-18'),</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -601,10 +541,6 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="0" t="str">
-        <f aca="false">"('"&amp;A16&amp;"','"&amp;B16&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758514','2022-10-18'),</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -613,10 +549,6 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="0" t="str">
-        <f aca="false">"('"&amp;A17&amp;"','"&amp;B17&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758518','2022-10-18'),</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -625,10 +557,6 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="0" t="str">
-        <f aca="false">"('"&amp;A18&amp;"','"&amp;B18&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758525','2022-10-18'),</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -637,10 +565,6 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="0" t="str">
-        <f aca="false">"('"&amp;A19&amp;"','"&amp;B19&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758527','2022-10-18'),</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -649,10 +573,6 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="0" t="str">
-        <f aca="false">"('"&amp;A20&amp;"','"&amp;B20&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758529','2022-10-18'),</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -661,10 +581,6 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="0" t="str">
-        <f aca="false">"('"&amp;A21&amp;"','"&amp;B21&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758520','2022-10-18'),</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -673,10 +589,6 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="0" t="str">
-        <f aca="false">"('"&amp;A22&amp;"','"&amp;B22&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758658','2022-10-18'),</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -685,10 +597,6 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="0" t="str">
-        <f aca="false">"('"&amp;A23&amp;"','"&amp;B23&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758661','2022-10-18'),</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -697,10 +605,6 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="0" t="str">
-        <f aca="false">"('"&amp;A24&amp;"','"&amp;B24&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758665','2022-10-18'),</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -709,10 +613,6 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="0" t="str">
-        <f aca="false">"('"&amp;A25&amp;"','"&amp;B25&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758668','2022-10-18'),</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -721,10 +621,6 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="0" t="str">
-        <f aca="false">"('"&amp;A26&amp;"','"&amp;B26&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758676','2022-10-18'),</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -733,10 +629,6 @@
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="0" t="str">
-        <f aca="false">"('"&amp;A27&amp;"','"&amp;B27&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758686','2022-10-18'),</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -745,10 +637,6 @@
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="0" t="str">
-        <f aca="false">"('"&amp;A28&amp;"','"&amp;B28&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758691','2022-10-18'),</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -757,10 +645,6 @@
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="0" t="str">
-        <f aca="false">"('"&amp;A29&amp;"','"&amp;B29&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758694','2022-10-18'),</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -769,10 +653,6 @@
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="0" t="str">
-        <f aca="false">"('"&amp;A30&amp;"','"&amp;B30&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758697','2022-10-18'),</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -781,10 +661,6 @@
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="0" t="str">
-        <f aca="false">"('"&amp;A31&amp;"','"&amp;B31&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758698','2022-10-18'),</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -793,10 +669,6 @@
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="0" t="str">
-        <f aca="false">"('"&amp;A32&amp;"','"&amp;B32&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758699','2022-10-18'),</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -805,10 +677,6 @@
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="0" t="str">
-        <f aca="false">"('"&amp;A33&amp;"','"&amp;B33&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758607','2022-10-18'),</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -817,10 +685,6 @@
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="0" t="str">
-        <f aca="false">"('"&amp;A34&amp;"','"&amp;B34&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758616','2022-10-18'),</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -829,10 +693,6 @@
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="0" t="str">
-        <f aca="false">"('"&amp;A35&amp;"','"&amp;B35&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758624','2022-10-18'),</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -841,10 +701,6 @@
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="0" t="str">
-        <f aca="false">"('"&amp;A36&amp;"','"&amp;B36&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758620','2022-10-18'),</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -853,10 +709,6 @@
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="0" t="str">
-        <f aca="false">"('"&amp;A37&amp;"','"&amp;B37&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758631','2022-10-18'),</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -865,10 +717,6 @@
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="0" t="str">
-        <f aca="false">"('"&amp;A38&amp;"','"&amp;B38&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758638','2022-10-18'),</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -877,10 +725,6 @@
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="0" t="str">
-        <f aca="false">"('"&amp;A39&amp;"','"&amp;B39&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758630','2022-10-18'),</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -889,10 +733,6 @@
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="0" t="str">
-        <f aca="false">"('"&amp;A40&amp;"','"&amp;B40&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758644','2022-10-18'),</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -901,10 +741,6 @@
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="0" t="str">
-        <f aca="false">"('"&amp;A41&amp;"','"&amp;B41&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758646','2022-10-18'),</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -913,10 +749,6 @@
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="0" t="str">
-        <f aca="false">"('"&amp;A42&amp;"','"&amp;B42&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758647','2022-10-18'),</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -925,10 +757,6 @@
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="0" t="str">
-        <f aca="false">"('"&amp;A43&amp;"','"&amp;B43&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758648','2022-10-18'),</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -937,10 +765,6 @@
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="0" t="str">
-        <f aca="false">"('"&amp;A44&amp;"','"&amp;B44&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758752','2022-10-18'),</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -949,10 +773,6 @@
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="0" t="str">
-        <f aca="false">"('"&amp;A45&amp;"','"&amp;B45&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758755','2022-10-18'),</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -961,10 +781,6 @@
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="0" t="str">
-        <f aca="false">"('"&amp;A46&amp;"','"&amp;B46&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758756','2022-10-18'),</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -973,10 +789,6 @@
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="0" t="str">
-        <f aca="false">"('"&amp;A47&amp;"','"&amp;B47&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758757','2022-10-18'),</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -985,10 +797,6 @@
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="0" t="str">
-        <f aca="false">"('"&amp;A48&amp;"','"&amp;B48&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758761','2022-10-18'),</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -997,10 +805,6 @@
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="0" t="str">
-        <f aca="false">"('"&amp;A49&amp;"','"&amp;B49&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758765','2022-10-18'),</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -1009,10 +813,6 @@
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="0" t="str">
-        <f aca="false">"('"&amp;A50&amp;"','"&amp;B50&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758766','2022-10-18'),</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -1021,10 +821,6 @@
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="0" t="str">
-        <f aca="false">"('"&amp;A51&amp;"','"&amp;B51&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758771','2022-10-18'),</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -1033,10 +829,6 @@
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="0" t="str">
-        <f aca="false">"('"&amp;A52&amp;"','"&amp;B52&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758778','2022-10-18'),</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -1045,10 +837,6 @@
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="0" t="str">
-        <f aca="false">"('"&amp;A53&amp;"','"&amp;B53&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758783','2022-10-18'),</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -1057,10 +845,6 @@
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="0" t="str">
-        <f aca="false">"('"&amp;A54&amp;"','"&amp;B54&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758784','2022-10-18'),</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -1069,10 +853,6 @@
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="0" t="str">
-        <f aca="false">"('"&amp;A55&amp;"','"&amp;B55&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758787','2022-10-18'),</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -1081,10 +861,6 @@
       <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="0" t="str">
-        <f aca="false">"('"&amp;A56&amp;"','"&amp;B56&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758793','2022-10-18'),</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -1093,10 +869,6 @@
       <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="0" t="str">
-        <f aca="false">"('"&amp;A57&amp;"','"&amp;B57&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758795','2022-10-18'),</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -1105,10 +877,6 @@
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="0" t="str">
-        <f aca="false">"('"&amp;A58&amp;"','"&amp;B58&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758796','2022-10-18'),</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -1117,10 +885,6 @@
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="0" t="str">
-        <f aca="false">"('"&amp;A59&amp;"','"&amp;B59&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758798','2022-10-18'),</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -1129,10 +893,6 @@
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="0" t="str">
-        <f aca="false">"('"&amp;A60&amp;"','"&amp;B60&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758799','2022-10-18'),</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -1141,10 +901,6 @@
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="0" t="str">
-        <f aca="false">"('"&amp;A61&amp;"','"&amp;B61&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758700','2022-10-18'),</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -1153,10 +909,6 @@
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="0" t="str">
-        <f aca="false">"('"&amp;A62&amp;"','"&amp;B62&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758713','2022-10-18'),</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -1165,10 +917,6 @@
       <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="0" t="str">
-        <f aca="false">"('"&amp;A63&amp;"','"&amp;B63&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758722','2022-10-18'),</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -1177,10 +925,6 @@
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="0" t="str">
-        <f aca="false">"('"&amp;A64&amp;"','"&amp;B64&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758724','2022-10-18'),</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -1189,10 +933,6 @@
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="0" t="str">
-        <f aca="false">"('"&amp;A65&amp;"','"&amp;B65&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758733','2022-10-18'),</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -1201,10 +941,6 @@
       <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="0" t="str">
-        <f aca="false">"('"&amp;A66&amp;"','"&amp;B66&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758737','2022-10-18'),</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
@@ -1213,10 +949,6 @@
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="0" t="str">
-        <f aca="false">"('"&amp;A67&amp;"','"&amp;B67&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758745','2022-10-18'),</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -1225,10 +957,6 @@
       <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="0" t="str">
-        <f aca="false">"('"&amp;A68&amp;"','"&amp;B68&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758748','2022-10-18'),</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -1237,10 +965,6 @@
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="0" t="str">
-        <f aca="false">"('"&amp;A69&amp;"','"&amp;B69&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758858','2022-10-18'),</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -1249,10 +973,6 @@
       <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="0" t="str">
-        <f aca="false">"('"&amp;A70&amp;"','"&amp;B70&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758865','2022-10-18'),</v>
-      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -1261,10 +981,6 @@
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="0" t="str">
-        <f aca="false">"('"&amp;A71&amp;"','"&amp;B71&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758867','2022-10-18'),</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -1273,10 +989,6 @@
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="0" t="str">
-        <f aca="false">"('"&amp;A72&amp;"','"&amp;B72&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758869','2022-10-18'),</v>
-      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -1285,10 +997,6 @@
       <c r="B73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="0" t="str">
-        <f aca="false">"('"&amp;A73&amp;"','"&amp;B73&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758860','2022-10-18'),</v>
-      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
@@ -1297,10 +1005,6 @@
       <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="0" t="str">
-        <f aca="false">"('"&amp;A74&amp;"','"&amp;B74&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758875','2022-10-18'),</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -1309,10 +1013,6 @@
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="0" t="str">
-        <f aca="false">"('"&amp;A75&amp;"','"&amp;B75&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758878','2022-10-18'),</v>
-      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -1321,10 +1021,6 @@
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="0" t="str">
-        <f aca="false">"('"&amp;A76&amp;"','"&amp;B76&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758879','2022-10-18'),</v>
-      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -1333,10 +1029,6 @@
       <c r="B77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="0" t="str">
-        <f aca="false">"('"&amp;A77&amp;"','"&amp;B77&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758885','2022-10-18'),</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -1345,10 +1037,6 @@
       <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="0" t="str">
-        <f aca="false">"('"&amp;A78&amp;"','"&amp;B78&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758886','2022-10-18'),</v>
-      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -1357,10 +1045,6 @@
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="0" t="str">
-        <f aca="false">"('"&amp;A79&amp;"','"&amp;B79&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758887','2022-10-18'),</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -1369,10 +1053,6 @@
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="0" t="str">
-        <f aca="false">"('"&amp;A80&amp;"','"&amp;B80&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758880','2022-10-18'),</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -1381,10 +1061,6 @@
       <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="0" t="str">
-        <f aca="false">"('"&amp;A81&amp;"','"&amp;B81&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758895','2022-10-18'),</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
@@ -1393,10 +1069,6 @@
       <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="0" t="str">
-        <f aca="false">"('"&amp;A82&amp;"','"&amp;B82&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758899','2022-10-18'),</v>
-      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -1405,10 +1077,6 @@
       <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="0" t="str">
-        <f aca="false">"('"&amp;A83&amp;"','"&amp;B83&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758804','2022-10-18'),</v>
-      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
@@ -1417,10 +1085,6 @@
       <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="0" t="str">
-        <f aca="false">"('"&amp;A84&amp;"','"&amp;B84&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758812','2022-10-18'),</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -1429,10 +1093,6 @@
       <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="0" t="str">
-        <f aca="false">"('"&amp;A85&amp;"','"&amp;B85&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758817','2022-10-18'),</v>
-      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -1441,10 +1101,6 @@
       <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="0" t="str">
-        <f aca="false">"('"&amp;A86&amp;"','"&amp;B86&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758822','2022-10-18'),</v>
-      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
@@ -1453,10 +1109,6 @@
       <c r="B87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="0" t="str">
-        <f aca="false">"('"&amp;A87&amp;"','"&amp;B87&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758825','2022-10-18'),</v>
-      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
@@ -1465,10 +1117,6 @@
       <c r="B88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="0" t="str">
-        <f aca="false">"('"&amp;A88&amp;"','"&amp;B88&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758837','2022-10-18'),</v>
-      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
@@ -1477,10 +1125,6 @@
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="0" t="str">
-        <f aca="false">"('"&amp;A89&amp;"','"&amp;B89&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758830','2022-10-18'),</v>
-      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
@@ -1489,10 +1133,6 @@
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="0" t="str">
-        <f aca="false">"('"&amp;A90&amp;"','"&amp;B90&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758842','2022-10-18'),</v>
-      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
@@ -1501,10 +1141,6 @@
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="0" t="str">
-        <f aca="false">"('"&amp;A91&amp;"','"&amp;B91&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758844','2022-10-18'),</v>
-      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
@@ -1513,10 +1149,6 @@
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="0" t="str">
-        <f aca="false">"('"&amp;A92&amp;"','"&amp;B92&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758845','2022-10-18'),</v>
-      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
@@ -1524,10 +1156,6 @@
       </c>
       <c r="B93" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C93" s="0" t="str">
-        <f aca="false">"('"&amp;A93&amp;"','"&amp;B93&amp;"','2022-10-18'),"</f>
-        <v>('bapak/ibu','6281230758848','2022-10-18'),</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
